--- a/Complete-spreadsheets/TASK/F4-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/F4-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFB103-AA6E-4ADC-BA59-0C4F2938A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A30BA7B-0409-4E5F-B15F-472963BB9AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>19.98731361287884</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.306860844665129</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.0534239460573582</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5.2631984891111756</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.3131420720231386</v>
+      <c r="B2" s="4">
+        <v>10.121981886041141</v>
+      </c>
+      <c r="C2" s="4">
+        <v>51.593555841213004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11.974971310795359</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.6061629868459431</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.3701320364924578</v>
       </c>
       <c r="G2">
-        <v>46.92393896473564</v>
+        <v>82.666804061387879</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -538,22 +538,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>10.121981886041141</v>
+        <v>7.2805299698054409</v>
       </c>
       <c r="C3" s="4">
-        <v>51.593555841213004</v>
+        <v>85.068805150586627</v>
       </c>
       <c r="D3" s="4">
-        <v>11.974971310795359</v>
+        <v>6.1617140029686617</v>
       </c>
       <c r="E3" s="4">
-        <v>3.6061629868459431</v>
+        <v>3.5451254414476918</v>
       </c>
       <c r="F3" s="4">
-        <v>5.3701320364924578</v>
+        <v>5.7657252826849064</v>
       </c>
       <c r="G3">
-        <v>82.666804061387879</v>
+        <v>107.8218998474933</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -575,23 +575,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>43.29874996896271</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14.70278264878262</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6.1849197343608768</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8.5096123236732257</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12.23171974384479</v>
+      <c r="B4" s="4">
+        <v>18.034066232794899</v>
+      </c>
+      <c r="C4" s="4">
+        <v>72.624982602284007</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10.35439948295355</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.4782103587955344</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.4931340561346511</v>
       </c>
       <c r="G4">
-        <v>84.927784419624203</v>
+        <v>110.9847927329626</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -613,23 +613,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>53.279644370207379</v>
-      </c>
-      <c r="C5" s="3">
-        <v>19.822840782282789</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.7124381073697919</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.8940770874803179</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.9981825209948809</v>
+      <c r="B5" s="4">
+        <v>12.744998451409399</v>
+      </c>
+      <c r="C5" s="4">
+        <v>81.100929277775606</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10.353389279654481</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10.63079523346852</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22.131706370413159</v>
       </c>
       <c r="G5">
-        <v>89.707182868335138</v>
+        <v>136.9618186127212</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -651,23 +651,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>49.828564710556151</v>
-      </c>
-      <c r="C6" s="3">
-        <v>33.998545883394442</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.6769757163166501</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.6452257654075919</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.541022489533348</v>
+      <c r="B6" s="4">
+        <v>63.846987322618929</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36.578954397111517</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25.649541744618869</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10.579521764170559</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12.281086398986959</v>
       </c>
       <c r="G6">
-        <v>92.690334565208161</v>
+        <v>148.93609162750681</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -689,23 +689,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>82.42069155877364</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11.14951875568627</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.6900519218349164</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.1330855457455744</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.4323779740965521</v>
+      <c r="B7" s="4">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C7" s="4">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G7">
-        <v>105.8257257561369</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -728,22 +728,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>7.2805299698054409</v>
+        <v>39.6270470852714</v>
       </c>
       <c r="C8" s="4">
-        <v>85.068805150586627</v>
+        <v>103.4093075737668</v>
       </c>
       <c r="D8" s="4">
-        <v>6.1617140029686617</v>
+        <v>10.558605364345979</v>
       </c>
       <c r="E8" s="4">
-        <v>3.5451254414476918</v>
+        <v>3.7197367544186068</v>
       </c>
       <c r="F8" s="4">
-        <v>5.7657252826849064</v>
+        <v>7.0465680528271983</v>
       </c>
       <c r="G8">
-        <v>107.8218998474933</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>18.034066232794899</v>
+        <v>39.6270470852714</v>
       </c>
       <c r="C9" s="4">
-        <v>72.624982602284007</v>
+        <v>103.4093075737668</v>
       </c>
       <c r="D9" s="4">
-        <v>10.35439948295355</v>
+        <v>10.558605364345979</v>
       </c>
       <c r="E9" s="4">
-        <v>4.4782103587955344</v>
+        <v>3.7197367544186068</v>
       </c>
       <c r="F9" s="4">
-        <v>5.4931340561346511</v>
+        <v>7.0465680528271983</v>
       </c>
       <c r="G9">
-        <v>110.9847927329626</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -803,23 +803,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>64.573613660137553</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18.494959218024409</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14.920458955394659</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.2025462065397505</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.1580699305408899</v>
+      <c r="B10" s="4">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C10" s="4">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G10">
-        <v>111.34964797063731</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -841,23 +841,23 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>64.704522861184046</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18.20560608595579</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8.3405153364939046</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11.35792205055491</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10.7348353178784</v>
+      <c r="B11" s="4">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C11" s="4">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G11">
-        <v>113.3434016520671</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -879,23 +879,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>78.211388251235462</v>
-      </c>
-      <c r="C12" s="3">
-        <v>21.88752835008572</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7.4412979021814412</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8.2059926001374741</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7.543817815271046</v>
+      <c r="B12" s="4">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C12" s="4">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G12">
-        <v>123.2900249189111</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -921,22 +921,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>12.744998451409399</v>
+        <v>39.6270470852714</v>
       </c>
       <c r="C13" s="4">
-        <v>81.100929277775606</v>
+        <v>103.4093075737668</v>
       </c>
       <c r="D13" s="4">
-        <v>10.353389279654481</v>
+        <v>10.558605364345979</v>
       </c>
       <c r="E13" s="4">
-        <v>10.63079523346852</v>
+        <v>3.7197367544186068</v>
       </c>
       <c r="F13" s="4">
-        <v>22.131706370413159</v>
+        <v>7.0465680528271983</v>
       </c>
       <c r="G13">
-        <v>136.9618186127212</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>63.846987322618929</v>
+        <v>39.6270470852714</v>
       </c>
       <c r="C14" s="4">
-        <v>36.578954397111517</v>
+        <v>103.4093075737668</v>
       </c>
       <c r="D14" s="4">
-        <v>25.649541744618869</v>
+        <v>10.558605364345979</v>
       </c>
       <c r="E14" s="4">
-        <v>10.579521764170559</v>
+        <v>3.7197367544186068</v>
       </c>
       <c r="F14" s="4">
-        <v>12.281086398986959</v>
+        <v>7.0465680528271983</v>
       </c>
       <c r="G14">
-        <v>148.93609162750681</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1038,22 +1038,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>39.6270470852714</v>
+        <v>139.21338771500979</v>
       </c>
       <c r="C16" s="4">
-        <v>103.4093075737668</v>
+        <v>22.704288117682179</v>
       </c>
       <c r="D16" s="4">
-        <v>10.558605364345979</v>
+        <v>4.6655194025948052</v>
       </c>
       <c r="E16" s="4">
-        <v>3.7197367544186068</v>
+        <v>3.293539360978722</v>
       </c>
       <c r="F16" s="4">
-        <v>7.0465680528271983</v>
+        <v>2.4426308177591118</v>
       </c>
       <c r="G16">
-        <v>164.36126483063001</v>
+        <v>172.3193654140247</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>39.6270470852714</v>
+        <v>17.718875543952429</v>
       </c>
       <c r="C17" s="4">
-        <v>103.4093075737668</v>
+        <v>94.112341841645161</v>
       </c>
       <c r="D17" s="4">
-        <v>10.558605364345979</v>
+        <v>17.15224484180381</v>
       </c>
       <c r="E17" s="4">
-        <v>3.7197367544186068</v>
+        <v>16.647170496613871</v>
       </c>
       <c r="F17" s="4">
-        <v>7.0465680528271983</v>
+        <v>35.84173747413768</v>
       </c>
       <c r="G17">
-        <v>164.36126483063001</v>
+        <v>181.47237019815299</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1114,22 +1114,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>39.6270470852714</v>
+        <v>73.958995441926533</v>
       </c>
       <c r="C18" s="4">
-        <v>103.4093075737668</v>
+        <v>112.77992108608041</v>
       </c>
       <c r="D18" s="4">
-        <v>10.558605364345979</v>
+        <v>9.2837747288468222</v>
       </c>
       <c r="E18" s="4">
-        <v>3.7197367544186068</v>
+        <v>8.39704402126657</v>
       </c>
       <c r="F18" s="4">
-        <v>7.0465680528271983</v>
+        <v>11.51348959448376</v>
       </c>
       <c r="G18">
-        <v>164.36126483063001</v>
+        <v>215.93322487260409</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>39.6270470852714</v>
+        <v>197.99640439748021</v>
       </c>
       <c r="C19" s="4">
-        <v>103.4093075737668</v>
+        <v>69.477044860954024</v>
       </c>
       <c r="D19" s="4">
-        <v>10.558605364345979</v>
+        <v>23.784375807083329</v>
       </c>
       <c r="E19" s="4">
-        <v>3.7197367544186068</v>
+        <v>19.92309446001012</v>
       </c>
       <c r="F19" s="4">
-        <v>7.0465680528271983</v>
+        <v>18.988484977151501</v>
       </c>
       <c r="G19">
-        <v>164.36126483063001</v>
+        <v>330.16940450267919</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1190,22 +1190,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>39.6270470852714</v>
+        <v>115.45594920435769</v>
       </c>
       <c r="C20" s="4">
-        <v>103.4093075737668</v>
+        <v>265.25800032830739</v>
       </c>
       <c r="D20" s="4">
-        <v>10.558605364345979</v>
+        <v>20.866600528409379</v>
       </c>
       <c r="E20" s="4">
-        <v>3.7197367544186068</v>
+        <v>11.394161245447551</v>
       </c>
       <c r="F20" s="4">
-        <v>7.0465680528271983</v>
+        <v>7.6928282055569026</v>
       </c>
       <c r="G20">
-        <v>164.36126483063001</v>
+        <v>420.66753951207897</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1228,22 +1228,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>39.6270470852714</v>
+        <v>919.00343944931728</v>
       </c>
       <c r="C21" s="4">
-        <v>103.4093075737668</v>
+        <v>66.852702607578635</v>
       </c>
       <c r="D21" s="4">
-        <v>10.558605364345979</v>
+        <v>44.972915703481341</v>
       </c>
       <c r="E21" s="4">
-        <v>3.7197367544186068</v>
+        <v>33.807184387987192</v>
       </c>
       <c r="F21" s="4">
-        <v>7.0465680528271983</v>
+        <v>32.078246758741862</v>
       </c>
       <c r="G21">
-        <v>164.36126483063001</v>
+        <v>1096.714488907106</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>39.6270470852714</v>
+        <v>1453.4922561168869</v>
       </c>
       <c r="C22" s="4">
-        <v>103.4093075737668</v>
+        <v>95.26348723726673</v>
       </c>
       <c r="D22" s="4">
-        <v>10.558605364345979</v>
+        <v>11.671662519159209</v>
       </c>
       <c r="E22" s="4">
-        <v>3.7197367544186068</v>
+        <v>4.867070586111292</v>
       </c>
       <c r="F22" s="4">
-        <v>7.0465680528271983</v>
+        <v>3.242407507744169</v>
       </c>
       <c r="G22">
-        <v>164.36126483063001</v>
+        <v>1568.5368839671689</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1304,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>39.6270470852714</v>
+        <v>5414.6398728791501</v>
       </c>
       <c r="C23" s="4">
-        <v>103.4093075737668</v>
+        <v>518.57609409255906</v>
       </c>
       <c r="D23" s="4">
-        <v>10.558605364345979</v>
+        <v>288.74077528267782</v>
       </c>
       <c r="E23" s="4">
-        <v>3.7197367544186068</v>
+        <v>172.10482218329491</v>
       </c>
       <c r="F23" s="4">
-        <v>7.0465680528271983</v>
+        <v>121.0003572939808</v>
       </c>
       <c r="G23">
-        <v>164.36126483063001</v>
+        <v>6515.0619217316607</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>101.4192739022082</v>
+        <v>19.98731361287884</v>
       </c>
       <c r="C24" s="3">
-        <v>29.89335274007377</v>
+        <v>10.306860844665129</v>
       </c>
       <c r="D24" s="3">
-        <v>14.224793764806851</v>
+        <v>6.0534239460573582</v>
       </c>
       <c r="E24" s="3">
-        <v>14.084726097625129</v>
+        <v>5.2631984891111756</v>
       </c>
       <c r="F24" s="3">
-        <v>6.1906691625042694</v>
+        <v>5.3131420720231386</v>
       </c>
       <c r="G24">
-        <v>165.81281566721819</v>
+        <v>46.92393896473564</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1380,22 +1380,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>116.6684656025654</v>
+        <v>43.29874996896271</v>
       </c>
       <c r="C25" s="3">
-        <v>34.564026593761852</v>
+        <v>14.70278264878262</v>
       </c>
       <c r="D25" s="3">
-        <v>6.2884297078213356</v>
+        <v>6.1849197343608768</v>
       </c>
       <c r="E25" s="3">
-        <v>5.2777197161249836</v>
+        <v>8.5096123236732257</v>
       </c>
       <c r="F25" s="3">
-        <v>3.950980184833087</v>
+        <v>12.23171974384479</v>
       </c>
       <c r="G25">
-        <v>166.74962180510661</v>
+        <v>84.927784419624203</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1418,22 +1418,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>50.239737542808911</v>
+        <v>53.279644370207379</v>
       </c>
       <c r="C26" s="3">
-        <v>59.126080065312337</v>
+        <v>19.822840782282789</v>
       </c>
       <c r="D26" s="3">
-        <v>21.811089603245762</v>
+        <v>9.7124381073697919</v>
       </c>
       <c r="E26" s="3">
-        <v>15.82104218709067</v>
+        <v>3.8940770874803179</v>
       </c>
       <c r="F26" s="3">
-        <v>23.79615039279328</v>
+        <v>2.9981825209948809</v>
       </c>
       <c r="G26">
-        <v>170.79409979125089</v>
+        <v>89.707182868335138</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1455,23 +1455,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>139.21338771500979</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22.704288117682179</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4.6655194025948052</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3.293539360978722</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2.4426308177591118</v>
+      <c r="B27" s="3">
+        <v>49.828564710556151</v>
+      </c>
+      <c r="C27" s="3">
+        <v>33.998545883394442</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.6769757163166501</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.6452257654075919</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.541022489533348</v>
       </c>
       <c r="G27">
-        <v>172.3193654140247</v>
+        <v>92.690334565208161</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1494,22 +1494,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>91.610762916644433</v>
+        <v>82.42069155877364</v>
       </c>
       <c r="C28" s="3">
-        <v>29.501200277422971</v>
+        <v>11.14951875568627</v>
       </c>
       <c r="D28" s="3">
-        <v>37.815766268545403</v>
+        <v>4.6900519218349164</v>
       </c>
       <c r="E28" s="3">
-        <v>15.32815727269436</v>
+        <v>4.1330855457455744</v>
       </c>
       <c r="F28" s="3">
-        <v>5.6111746723045828</v>
+        <v>3.4323779740965521</v>
       </c>
       <c r="G28">
-        <v>179.86706140761169</v>
+        <v>105.8257257561369</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1531,23 +1531,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>17.718875543952429</v>
-      </c>
-      <c r="C29" s="4">
-        <v>94.112341841645161</v>
-      </c>
-      <c r="D29" s="4">
-        <v>17.15224484180381</v>
-      </c>
-      <c r="E29" s="4">
-        <v>16.647170496613871</v>
-      </c>
-      <c r="F29" s="4">
-        <v>35.84173747413768</v>
+      <c r="B29" s="3">
+        <v>64.573613660137553</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18.494959218024409</v>
+      </c>
+      <c r="D29" s="3">
+        <v>14.920458955394659</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8.2025462065397505</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.1580699305408899</v>
       </c>
       <c r="G29">
-        <v>181.47237019815299</v>
+        <v>111.34964797063731</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>23</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1569,23 +1569,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>73.958995441926533</v>
-      </c>
-      <c r="C30" s="4">
-        <v>112.77992108608041</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9.2837747288468222</v>
-      </c>
-      <c r="E30" s="4">
-        <v>8.39704402126657</v>
-      </c>
-      <c r="F30" s="4">
-        <v>11.51348959448376</v>
+      <c r="B30" s="3">
+        <v>64.704522861184046</v>
+      </c>
+      <c r="C30" s="3">
+        <v>18.20560608595579</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8.3405153364939046</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11.35792205055491</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10.7348353178784</v>
       </c>
       <c r="G30">
-        <v>215.93322487260409</v>
+        <v>113.3434016520671</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1608,22 +1608,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>224.34550815860959</v>
+        <v>78.211388251235462</v>
       </c>
       <c r="C31" s="3">
-        <v>41.661035204417097</v>
+        <v>21.88752835008572</v>
       </c>
       <c r="D31" s="3">
-        <v>6.4784637192893273</v>
+        <v>7.4412979021814412</v>
       </c>
       <c r="E31" s="3">
-        <v>3.3144544274050012</v>
+        <v>8.2059926001374741</v>
       </c>
       <c r="F31" s="3">
-        <v>2.11269106075334</v>
+        <v>7.543817815271046</v>
       </c>
       <c r="G31">
-        <v>277.9121525704744</v>
+        <v>123.2900249189111</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1646,22 +1646,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>215.80885178142159</v>
+        <v>101.4192739022082</v>
       </c>
       <c r="C32" s="3">
-        <v>50.024372581260579</v>
+        <v>29.89335274007377</v>
       </c>
       <c r="D32" s="3">
-        <v>13.10670655950446</v>
+        <v>14.224793764806851</v>
       </c>
       <c r="E32" s="3">
-        <v>7.2342812954142879</v>
+        <v>14.084726097625129</v>
       </c>
       <c r="F32" s="3">
-        <v>6.3473035876945856</v>
+        <v>6.1906691625042694</v>
       </c>
       <c r="G32">
-        <v>292.52151580529551</v>
+        <v>165.81281566721819</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1684,22 +1684,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>231.4108844620059</v>
+        <v>116.6684656025654</v>
       </c>
       <c r="C33" s="3">
-        <v>58.486922443380152</v>
+        <v>34.564026593761852</v>
       </c>
       <c r="D33" s="3">
-        <v>7.7023226506775284</v>
+        <v>6.2884297078213356</v>
       </c>
       <c r="E33" s="3">
-        <v>3.982297633688471</v>
+        <v>5.2777197161249836</v>
       </c>
       <c r="F33" s="3">
-        <v>4.2412067308771668</v>
+        <v>3.950980184833087</v>
       </c>
       <c r="G33">
-        <v>305.82363392062928</v>
+        <v>166.74962180510661</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1721,23 +1721,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>197.99640439748021</v>
-      </c>
-      <c r="C34" s="4">
-        <v>69.477044860954024</v>
-      </c>
-      <c r="D34" s="4">
-        <v>23.784375807083329</v>
-      </c>
-      <c r="E34" s="4">
-        <v>19.92309446001012</v>
-      </c>
-      <c r="F34" s="4">
-        <v>18.988484977151501</v>
+      <c r="B34" s="3">
+        <v>50.239737542808911</v>
+      </c>
+      <c r="C34" s="3">
+        <v>59.126080065312337</v>
+      </c>
+      <c r="D34" s="3">
+        <v>21.811089603245762</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15.82104218709067</v>
+      </c>
+      <c r="F34" s="3">
+        <v>23.79615039279328</v>
       </c>
       <c r="G34">
-        <v>330.16940450267919</v>
+        <v>170.79409979125089</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>19</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1760,22 +1760,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>247.21865090057301</v>
+        <v>91.610762916644433</v>
       </c>
       <c r="C35" s="3">
-        <v>95.593171715428838</v>
+        <v>29.501200277422971</v>
       </c>
       <c r="D35" s="3">
-        <v>19.556880821517311</v>
+        <v>37.815766268545403</v>
       </c>
       <c r="E35" s="3">
-        <v>8.1414723946626744</v>
+        <v>15.32815727269436</v>
       </c>
       <c r="F35" s="3">
-        <v>5.9552656071069672</v>
+        <v>5.6111746723045828</v>
       </c>
       <c r="G35">
-        <v>376.46544143928872</v>
+        <v>179.86706140761169</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1797,23 +1797,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>115.45594920435769</v>
-      </c>
-      <c r="C36" s="4">
-        <v>265.25800032830739</v>
-      </c>
-      <c r="D36" s="4">
-        <v>20.866600528409379</v>
-      </c>
-      <c r="E36" s="4">
-        <v>11.394161245447551</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.6928282055569026</v>
+      <c r="B36" s="3">
+        <v>224.34550815860959</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41.661035204417097</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6.4784637192893273</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3.3144544274050012</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.11269106075334</v>
       </c>
       <c r="G36">
-        <v>420.66753951207897</v>
+        <v>277.9121525704744</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1836,22 +1836,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>327.26881529759203</v>
+        <v>215.80885178142159</v>
       </c>
       <c r="C37" s="3">
-        <v>57.674942595279688</v>
+        <v>50.024372581260579</v>
       </c>
       <c r="D37" s="3">
-        <v>15.007562585762591</v>
+        <v>13.10670655950446</v>
       </c>
       <c r="E37" s="3">
-        <v>11.597657752681309</v>
+        <v>7.2342812954142879</v>
       </c>
       <c r="F37" s="3">
-        <v>17.664448335213159</v>
+        <v>6.3473035876945856</v>
       </c>
       <c r="G37">
-        <v>429.21342656652871</v>
+        <v>292.52151580529551</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1874,22 +1874,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>391.96161553922423</v>
+        <v>231.4108844620059</v>
       </c>
       <c r="C38" s="3">
-        <v>74.435279475749837</v>
+        <v>58.486922443380152</v>
       </c>
       <c r="D38" s="3">
-        <v>8.7952650984107201</v>
+        <v>7.7023226506775284</v>
       </c>
       <c r="E38" s="3">
-        <v>9.5052185559928475</v>
+        <v>3.982297633688471</v>
       </c>
       <c r="F38" s="3">
-        <v>7.7679432474491747</v>
+        <v>4.2412067308771668</v>
       </c>
       <c r="G38">
-        <v>492.46532191682701</v>
+        <v>305.82363392062928</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1912,22 +1912,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>367.45311960539601</v>
+        <v>247.21865090057301</v>
       </c>
       <c r="C39" s="3">
-        <v>118.2721507217701</v>
+        <v>95.593171715428838</v>
       </c>
       <c r="D39" s="3">
-        <v>22.682676158199559</v>
+        <v>19.556880821517311</v>
       </c>
       <c r="E39" s="3">
-        <v>24.83054104651897</v>
+        <v>8.1414723946626744</v>
       </c>
       <c r="F39" s="3">
-        <v>42.680288285119943</v>
+        <v>5.9552656071069672</v>
       </c>
       <c r="G39">
-        <v>575.91877581700442</v>
+        <v>376.46544143928872</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1950,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>802.49508615332081</v>
+        <v>327.26881529759203</v>
       </c>
       <c r="C40" s="3">
-        <v>155.0506521762525</v>
+        <v>57.674942595279688</v>
       </c>
       <c r="D40" s="3">
-        <v>51.181520531218531</v>
+        <v>15.007562585762591</v>
       </c>
       <c r="E40" s="3">
-        <v>22.06267778357358</v>
+        <v>11.597657752681309</v>
       </c>
       <c r="F40" s="3">
-        <v>23.482694380302679</v>
+        <v>17.664448335213159</v>
       </c>
       <c r="G40">
-        <v>1054.272631024668</v>
+        <v>429.21342656652871</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1987,23 +1987,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>919.00343944931728</v>
-      </c>
-      <c r="C41" s="4">
-        <v>66.852702607578635</v>
-      </c>
-      <c r="D41" s="4">
-        <v>44.972915703481341</v>
-      </c>
-      <c r="E41" s="4">
-        <v>33.807184387987192</v>
-      </c>
-      <c r="F41" s="4">
-        <v>32.078246758741862</v>
+      <c r="B41" s="3">
+        <v>391.96161553922423</v>
+      </c>
+      <c r="C41" s="3">
+        <v>74.435279475749837</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8.7952650984107201</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9.5052185559928475</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.7679432474491747</v>
       </c>
       <c r="G41">
-        <v>1096.714488907106</v>
+        <v>492.46532191682701</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>15</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2026,22 +2026,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>812.56204948905702</v>
+        <v>367.45311960539601</v>
       </c>
       <c r="C42" s="3">
-        <v>174.26622604764941</v>
+        <v>118.2721507217701</v>
       </c>
       <c r="D42" s="3">
-        <v>39.622489540689998</v>
+        <v>22.682676158199559</v>
       </c>
       <c r="E42" s="3">
-        <v>42.050999233432783</v>
+        <v>24.83054104651897</v>
       </c>
       <c r="F42" s="3">
-        <v>93.209273735017831</v>
+        <v>42.680288285119943</v>
       </c>
       <c r="G42">
-        <v>1161.7110380458471</v>
+        <v>575.91877581700442</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2063,23 +2063,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>1453.4922561168869</v>
-      </c>
-      <c r="C43" s="4">
-        <v>95.26348723726673</v>
-      </c>
-      <c r="D43" s="4">
-        <v>11.671662519159209</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4.867070586111292</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3.242407507744169</v>
+      <c r="B43" s="3">
+        <v>802.49508615332081</v>
+      </c>
+      <c r="C43" s="3">
+        <v>155.0506521762525</v>
+      </c>
+      <c r="D43" s="3">
+        <v>51.181520531218531</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22.06267778357358</v>
+      </c>
+      <c r="F43" s="3">
+        <v>23.482694380302679</v>
       </c>
       <c r="G43">
-        <v>1568.5368839671689</v>
+        <v>1054.272631024668</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>13</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2102,22 +2102,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>767.75750175207895</v>
+        <v>812.56204948905702</v>
       </c>
       <c r="C44" s="3">
-        <v>273.0156269892567</v>
+        <v>174.26622604764941</v>
       </c>
       <c r="D44" s="3">
-        <v>163.55187981132781</v>
+        <v>39.622489540689998</v>
       </c>
       <c r="E44" s="3">
-        <v>246.68980573289431</v>
+        <v>42.050999233432783</v>
       </c>
       <c r="F44" s="3">
-        <v>203.60164589658879</v>
+        <v>93.209273735017831</v>
       </c>
       <c r="G44">
-        <v>1654.616460182147</v>
+        <v>1161.7110380458471</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2140,22 +2140,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>1443.3505173028491</v>
+        <v>767.75750175207895</v>
       </c>
       <c r="C45" s="3">
-        <v>282.48162829041701</v>
+        <v>273.0156269892567</v>
       </c>
       <c r="D45" s="3">
-        <v>77.027672097595314</v>
+        <v>163.55187981132781</v>
       </c>
       <c r="E45" s="3">
-        <v>46.357209793512581</v>
+        <v>246.68980573289431</v>
       </c>
       <c r="F45" s="3">
-        <v>28.297799478086461</v>
+        <v>203.60164589658879</v>
       </c>
       <c r="G45">
-        <v>1877.514826962461</v>
+        <v>1654.616460182147</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2178,22 +2178,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>1824.170654399906</v>
+        <v>1443.3505173028491</v>
       </c>
       <c r="C46" s="3">
-        <v>300.21421324496492</v>
+        <v>282.48162829041701</v>
       </c>
       <c r="D46" s="3">
-        <v>69.00401150500457</v>
+        <v>77.027672097595314</v>
       </c>
       <c r="E46" s="3">
-        <v>30.91758519686244</v>
+        <v>46.357209793512581</v>
       </c>
       <c r="F46" s="3">
-        <v>14.0447432912877</v>
+        <v>28.297799478086461</v>
       </c>
       <c r="G46">
-        <v>2238.3512076380248</v>
+        <v>1877.514826962461</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>283.96801766353173</v>
+        <v>1824.170654399906</v>
       </c>
       <c r="C47" s="3">
-        <v>92.145470572118711</v>
+        <v>300.21421324496492</v>
       </c>
       <c r="D47" s="3">
-        <v>133.79187010884019</v>
+        <v>69.00401150500457</v>
       </c>
       <c r="E47" s="3">
-        <v>681.8476875091053</v>
+        <v>30.91758519686244</v>
       </c>
       <c r="F47" s="3">
-        <v>1830.7693682929539</v>
+        <v>14.0447432912877</v>
       </c>
       <c r="G47">
-        <v>3022.5224141465492</v>
+        <v>2238.3512076380248</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2254,22 +2254,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="3">
-        <v>2244.2871352972602</v>
+        <v>283.96801766353173</v>
       </c>
       <c r="C48" s="3">
-        <v>288.26702975955658</v>
+        <v>92.145470572118711</v>
       </c>
       <c r="D48" s="3">
-        <v>137.86650162722981</v>
+        <v>133.79187010884019</v>
       </c>
       <c r="E48" s="3">
-        <v>129.20990659236409</v>
+        <v>681.8476875091053</v>
       </c>
       <c r="F48" s="3">
-        <v>839.74290186726887</v>
+        <v>1830.7693682929539</v>
       </c>
       <c r="G48">
-        <v>3639.37347514368</v>
+        <v>3022.5224141465492</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -2291,23 +2291,23 @@
       <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="4">
-        <v>5414.6398728791501</v>
-      </c>
-      <c r="C49" s="4">
-        <v>518.57609409255906</v>
-      </c>
-      <c r="D49" s="4">
-        <v>288.74077528267782</v>
-      </c>
-      <c r="E49" s="4">
-        <v>172.10482218329491</v>
-      </c>
-      <c r="F49" s="4">
-        <v>121.0003572939808</v>
+      <c r="B49" s="3">
+        <v>2244.2871352972602</v>
+      </c>
+      <c r="C49" s="3">
+        <v>288.26702975955658</v>
+      </c>
+      <c r="D49" s="3">
+        <v>137.86650162722981</v>
+      </c>
+      <c r="E49" s="3">
+        <v>129.20990659236409</v>
+      </c>
+      <c r="F49" s="3">
+        <v>839.74290186726887</v>
       </c>
       <c r="G49">
-        <v>6515.0619217316607</v>
+        <v>3639.37347514368</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>24</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>13</v>
@@ -2364,8 +2364,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K55">
-    <sortCondition ref="G2:G55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
